--- a/biology/Biologie cellulaire et moléculaire/Domaine_DHHC/Domaine_DHHC.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Domaine_DHHC/Domaine_DHHC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-En biologie moléculaire, un domaine DHHC est un domaine protéique qui permet la palmitoylation et qui fait partie des enzymes nommées Palmitoyl Acyl-transférases (PATs)[1].
-Ce domaine protéique a été découvert en 1999[2] et nommé d'après une séquence conservée découverte dans sa séquence protéique. En effet, les DHHC sont caractérisés par la conservation d'un domaine de 4 acides aminés, Asp-His-His-Cys. Chez l'Homme, on a identifié à ce jour une famille de 23 gènes de protéine DHHC-PATs ce qui montre la grande diversité des actions possibles par ces enzymes et donc de fait la grande diversité des substrats pouvant être modifiés par celles-ci. En 2014, la découverte qu’un certains nombres de pathologies dont des cancers assez sévères étaient associées à une dérégulation des protéines de S-palmitoylation a ouvert la voie à tout un nouveau champ de recherche[3].
-Les enzymes DHHC exercent leur activité avec un mécanisme en 2 temps. Premièrement, elles vont réaliser une auto-acylation dans une forme intermédiaire transitoire. Enfin, dans un second temps, elles vont transférer leur groupement palmitique à la protéine qui doit être modifiée. Les protéines sont aussi capables de faire la différence entre les acides gras à acyler. Ainsi, l’acide palmitique est très majoritairement acylé par rapport aux autres acides gras. La protéine possède donc une sélectivité particulière pour cet acide gras en particulier[4].
-Ces enzymes ont un énorme potentiel pour devenir dans le futur de très importants candidats pharmacologiques mais pour cela, il faudra alors développer des inhibiteurs efficaces et spécifiques à ces enzymes. De plus, il faudra que ces inhibiteurs soient spécifiques à des isoformes donnés et non aux DHHC en général. Pour cela, une connaissance bien plus fine des conformations moléculaire s’impose. Cibler les C-ter / N-ter spécifiques à chaque isoforme semble aussi être une voie possible de développement d’inhibiteurs[1].
+En biologie moléculaire, un domaine DHHC est un domaine protéique qui permet la palmitoylation et qui fait partie des enzymes nommées Palmitoyl Acyl-transférases (PATs).
+Ce domaine protéique a été découvert en 1999 et nommé d'après une séquence conservée découverte dans sa séquence protéique. En effet, les DHHC sont caractérisés par la conservation d'un domaine de 4 acides aminés, Asp-His-His-Cys. Chez l'Homme, on a identifié à ce jour une famille de 23 gènes de protéine DHHC-PATs ce qui montre la grande diversité des actions possibles par ces enzymes et donc de fait la grande diversité des substrats pouvant être modifiés par celles-ci. En 2014, la découverte qu’un certains nombres de pathologies dont des cancers assez sévères étaient associées à une dérégulation des protéines de S-palmitoylation a ouvert la voie à tout un nouveau champ de recherche.
+Les enzymes DHHC exercent leur activité avec un mécanisme en 2 temps. Premièrement, elles vont réaliser une auto-acylation dans une forme intermédiaire transitoire. Enfin, dans un second temps, elles vont transférer leur groupement palmitique à la protéine qui doit être modifiée. Les protéines sont aussi capables de faire la différence entre les acides gras à acyler. Ainsi, l’acide palmitique est très majoritairement acylé par rapport aux autres acides gras. La protéine possède donc une sélectivité particulière pour cet acide gras en particulier.
+Ces enzymes ont un énorme potentiel pour devenir dans le futur de très importants candidats pharmacologiques mais pour cela, il faudra alors développer des inhibiteurs efficaces et spécifiques à ces enzymes. De plus, il faudra que ces inhibiteurs soient spécifiques à des isoformes donnés et non aux DHHC en général. Pour cela, une connaissance bien plus fine des conformations moléculaire s’impose. Cibler les C-ter / N-ter spécifiques à chaque isoforme semble aussi être une voie possible de développement d’inhibiteurs.
 </t>
         </is>
       </c>
